--- a/data/ice-sales.xlsx
+++ b/data/ice-sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/makaishi/Documents/Github/ml/python-ml-doc/notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flour\Documents\sample-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{678DD1C1-8728-534A-81EF-C21BF31BD9AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DFCBC1-A3BB-49F8-9B73-D86CFFD6B4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15920"/>
+    <workbookView xWindow="9740" yWindow="3000" windowWidth="25470" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ice-data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>年月</t>
     <rPh sb="0" eb="2">
@@ -80,19 +80,33 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>연월</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ネンゲツ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>지출</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シシュツ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="yyyy\-mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -100,7 +114,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -108,7 +122,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -117,7 +131,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -126,7 +140,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -135,7 +149,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -143,7 +157,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -151,7 +165,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -159,7 +173,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -167,7 +181,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -176,7 +190,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -185,7 +199,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -193,7 +207,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -202,7 +216,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -210,7 +224,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -219,7 +233,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -228,7 +242,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -236,14 +250,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -681,53 +695,53 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -743,7 +757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1038,27 +1052,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="10.69140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>42005</v>
       </c>
@@ -1066,7 +1080,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>42036</v>
       </c>
@@ -1074,7 +1088,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>42064</v>
       </c>
@@ -1082,7 +1096,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>42095</v>
       </c>
@@ -1090,7 +1104,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>42125</v>
       </c>
@@ -1098,7 +1112,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>42156</v>
       </c>
@@ -1106,7 +1120,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>42186</v>
       </c>
@@ -1114,7 +1128,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>42217</v>
       </c>
@@ -1122,7 +1136,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>42248</v>
       </c>
@@ -1130,7 +1144,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>42278</v>
       </c>
@@ -1138,7 +1152,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>42309</v>
       </c>
@@ -1146,7 +1160,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>42339</v>
       </c>
@@ -1154,7 +1168,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>42370</v>
       </c>
@@ -1162,7 +1176,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>42401</v>
       </c>
@@ -1170,7 +1184,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>42430</v>
       </c>
@@ -1178,7 +1192,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>42461</v>
       </c>
@@ -1186,7 +1200,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>42491</v>
       </c>
@@ -1194,7 +1208,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>42522</v>
       </c>
@@ -1202,7 +1216,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>42552</v>
       </c>
@@ -1210,7 +1224,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>42583</v>
       </c>
@@ -1218,7 +1232,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>42614</v>
       </c>
@@ -1226,7 +1240,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>42644</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>42675</v>
       </c>
@@ -1242,7 +1256,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>42705</v>
       </c>
@@ -1250,7 +1264,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>42736</v>
       </c>
@@ -1258,7 +1272,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>42767</v>
       </c>
@@ -1266,7 +1280,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>42795</v>
       </c>
@@ -1274,7 +1288,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>42826</v>
       </c>
@@ -1282,7 +1296,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>42856</v>
       </c>
@@ -1290,7 +1304,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>42887</v>
       </c>
@@ -1298,7 +1312,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>42917</v>
       </c>
@@ -1306,7 +1320,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>42948</v>
       </c>
@@ -1314,7 +1328,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>42979</v>
       </c>
@@ -1322,7 +1336,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>43009</v>
       </c>
@@ -1330,7 +1344,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>43040</v>
       </c>
@@ -1338,7 +1352,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>43070</v>
       </c>
@@ -1346,7 +1360,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>43101</v>
       </c>
@@ -1354,7 +1368,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>43132</v>
       </c>
@@ -1362,7 +1376,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>43160</v>
       </c>
@@ -1370,7 +1384,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>43191</v>
       </c>
@@ -1378,7 +1392,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>43221</v>
       </c>
@@ -1386,7 +1400,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>43252</v>
       </c>
@@ -1394,7 +1408,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43282</v>
       </c>
@@ -1402,7 +1416,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>43313</v>
       </c>
@@ -1410,7 +1424,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>43344</v>
       </c>
@@ -1418,7 +1432,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>43374</v>
       </c>
@@ -1426,7 +1440,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>43405</v>
       </c>
@@ -1434,7 +1448,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>43435</v>
       </c>
@@ -1442,7 +1456,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>43466</v>
       </c>
@@ -1450,7 +1464,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>43497</v>
       </c>
@@ -1458,7 +1472,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>43525</v>
       </c>
@@ -1466,7 +1480,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>43556</v>
       </c>
@@ -1474,7 +1488,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>43586</v>
       </c>
@@ -1482,7 +1496,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>43617</v>
       </c>
@@ -1490,7 +1504,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>43647</v>
       </c>
@@ -1498,7 +1512,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>43678</v>
       </c>
@@ -1506,7 +1520,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>43709</v>
       </c>
@@ -1514,7 +1528,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>43739</v>
       </c>
@@ -1522,7 +1536,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>43770</v>
       </c>
@@ -1530,7 +1544,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>43800</v>
       </c>
@@ -1541,23 +1555,24 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="10.69140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1568,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>42005</v>
       </c>
@@ -1579,7 +1594,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>42036</v>
       </c>
@@ -1590,7 +1605,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>42064</v>
       </c>
@@ -1601,7 +1616,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>42095</v>
       </c>
@@ -1612,7 +1627,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>42125</v>
       </c>
@@ -1623,7 +1638,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>42156</v>
       </c>
@@ -1634,7 +1649,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>42186</v>
       </c>
@@ -1645,7 +1660,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>42217</v>
       </c>
@@ -1656,7 +1671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>42248</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>42278</v>
       </c>
@@ -1678,7 +1693,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>42309</v>
       </c>
@@ -1689,7 +1704,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>42339</v>
       </c>
@@ -1700,7 +1715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>42370</v>
       </c>
@@ -1711,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>42401</v>
       </c>
@@ -1722,7 +1737,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>42430</v>
       </c>
@@ -1733,7 +1748,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>42461</v>
       </c>
@@ -1744,7 +1759,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>42491</v>
       </c>
@@ -1755,7 +1770,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>42522</v>
       </c>
@@ -1766,7 +1781,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>42552</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>42583</v>
       </c>
@@ -1788,7 +1803,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>42614</v>
       </c>
@@ -1799,7 +1814,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>42644</v>
       </c>
@@ -1810,7 +1825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>42675</v>
       </c>
@@ -1821,7 +1836,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>42705</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>42736</v>
       </c>
@@ -1843,7 +1858,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>42767</v>
       </c>
@@ -1854,7 +1869,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>42795</v>
       </c>
@@ -1865,7 +1880,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>42826</v>
       </c>
@@ -1876,7 +1891,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>42856</v>
       </c>
@@ -1887,7 +1902,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>42887</v>
       </c>
@@ -1898,7 +1913,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>42917</v>
       </c>
@@ -1909,7 +1924,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>42948</v>
       </c>
@@ -1920,7 +1935,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>42979</v>
       </c>
@@ -1931,7 +1946,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>43009</v>
       </c>
@@ -1942,7 +1957,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>43040</v>
       </c>
@@ -1953,7 +1968,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
         <v>43070</v>
       </c>
@@ -1964,7 +1979,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>43101</v>
       </c>
@@ -1975,7 +1990,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>43132</v>
       </c>
@@ -1986,7 +2001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>43160</v>
       </c>
@@ -1997,7 +2012,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>43191</v>
       </c>
@@ -2008,7 +2023,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="2">
         <v>43221</v>
       </c>
@@ -2019,7 +2034,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="2">
         <v>43252</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>43282</v>
       </c>
@@ -2041,7 +2056,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>43313</v>
       </c>
@@ -2052,7 +2067,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>43344</v>
       </c>
@@ -2063,7 +2078,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>43374</v>
       </c>
@@ -2074,7 +2089,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>43405</v>
       </c>
@@ -2085,7 +2100,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>43435</v>
       </c>
@@ -2096,7 +2111,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>43466</v>
       </c>
@@ -2107,7 +2122,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>43497</v>
       </c>
@@ -2118,7 +2133,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>43525</v>
       </c>
@@ -2129,7 +2144,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>43556</v>
       </c>
@@ -2140,7 +2155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>43586</v>
       </c>
@@ -2151,7 +2166,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>43617</v>
       </c>
@@ -2162,7 +2177,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>43647</v>
       </c>
@@ -2173,7 +2188,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>43678</v>
       </c>
@@ -2184,7 +2199,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>43709</v>
       </c>
@@ -2195,7 +2210,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>43739</v>
       </c>
@@ -2206,7 +2221,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>43770</v>
       </c>
@@ -2217,7 +2232,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>43800</v>
       </c>
@@ -2235,24 +2250,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2260,7 +2275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
